--- a/Documentacion/Detalle actividades .xlsx
+++ b/Documentacion/Detalle actividades .xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CRISTHIAN\Desktop\car\Desrrollo de Software\UNIDAD 3\PROYECTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\Eddy Hipo\Tercer Semestre\Diseño de Interfaces GR1\Repositorio-Deberes\pryecto de la iglesia\proyecto-semestre-asientos-iglesia-grupo-3\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint Backlog " sheetId="1" r:id="rId1"/>
@@ -486,27 +486,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -528,6 +507,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -813,15 +813,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI35"/>
   <sheetViews>
-    <sheetView topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="AM8" sqref="AM8"/>
+    <sheetView tabSelected="1" topLeftCell="B15" workbookViewId="0">
+      <selection activeCell="AP25" sqref="AP25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="1" max="1" width="59.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.140625" customWidth="1"/>
     <col min="5" max="12" width="3.7109375" customWidth="1"/>
     <col min="13" max="24" width="3.85546875" customWidth="1"/>
@@ -829,7 +829,7 @@
     <col min="26" max="44" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="87" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="87.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="R4" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="S4" s="1">
         <f t="shared" si="0"/>
@@ -1069,7 +1069,7 @@
       </c>
       <c r="T4" s="1">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="U4" s="1">
         <f t="shared" si="0"/>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="V4" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="W4" s="1">
         <f t="shared" si="0"/>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="Y4" s="1">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="Z4" s="1">
         <f t="shared" si="0"/>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="AB4" s="1">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="AC4" s="1">
         <f t="shared" si="0"/>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="AD4" s="1">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="AE4" s="1">
         <f t="shared" si="0"/>
@@ -1133,45 +1133,45 @@
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="5"/>
-      <c r="AC5" s="5"/>
-      <c r="AD5" s="5"/>
-      <c r="AE5" s="5"/>
-      <c r="AF5" s="5"/>
-      <c r="AG5" s="5"/>
-      <c r="AH5" s="5"/>
-      <c r="AI5" s="6"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="16"/>
+      <c r="X5" s="16"/>
+      <c r="Y5" s="16"/>
+      <c r="Z5" s="16"/>
+      <c r="AA5" s="16"/>
+      <c r="AB5" s="16"/>
+      <c r="AC5" s="16"/>
+      <c r="AD5" s="16"/>
+      <c r="AE5" s="16"/>
+      <c r="AF5" s="16"/>
+      <c r="AG5" s="16"/>
+      <c r="AH5" s="16"/>
+      <c r="AI5" s="17"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -1184,37 +1184,37 @@
         <v>3</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="8"/>
-      <c r="AC6" s="8"/>
-      <c r="AD6" s="8"/>
-      <c r="AE6" s="8"/>
-      <c r="AF6" s="8"/>
-      <c r="AG6" s="8"/>
-      <c r="AH6" s="8"/>
-      <c r="AI6" s="9"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="19"/>
+      <c r="AA6" s="19"/>
+      <c r="AB6" s="19"/>
+      <c r="AC6" s="19"/>
+      <c r="AD6" s="19"/>
+      <c r="AE6" s="19"/>
+      <c r="AF6" s="19"/>
+      <c r="AG6" s="19"/>
+      <c r="AH6" s="19"/>
+      <c r="AI6" s="20"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -2140,19 +2140,31 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
+      <c r="R25" s="1">
+        <v>5</v>
+      </c>
       <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
+      <c r="T25" s="1">
+        <v>4</v>
+      </c>
       <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
+      <c r="V25" s="1">
+        <v>5</v>
+      </c>
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
-      <c r="Y25" s="1"/>
+      <c r="Y25" s="1">
+        <v>6</v>
+      </c>
       <c r="Z25" s="1"/>
       <c r="AA25" s="1"/>
-      <c r="AB25" s="1"/>
+      <c r="AB25" s="1">
+        <v>2</v>
+      </c>
       <c r="AC25" s="1"/>
-      <c r="AD25" s="1"/>
+      <c r="AD25" s="1">
+        <v>2</v>
+      </c>
       <c r="AE25" s="1"/>
       <c r="AF25" s="1"/>
       <c r="AG25" s="1"/>
@@ -2185,19 +2197,31 @@
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
+      <c r="R26" s="1">
+        <v>3</v>
+      </c>
       <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
+      <c r="T26" s="1">
+        <v>3</v>
+      </c>
       <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
+      <c r="V26" s="1">
+        <v>1</v>
+      </c>
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
-      <c r="Y26" s="1"/>
+      <c r="Y26" s="1">
+        <v>1</v>
+      </c>
       <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
-      <c r="AB26" s="1"/>
+      <c r="AB26" s="1">
+        <v>1</v>
+      </c>
       <c r="AC26" s="1"/>
-      <c r="AD26" s="1"/>
+      <c r="AD26" s="1">
+        <v>1</v>
+      </c>
       <c r="AE26" s="1"/>
       <c r="AF26" s="1"/>
       <c r="AG26" s="1"/>
@@ -2230,19 +2254,31 @@
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
+      <c r="R27" s="1">
+        <v>5</v>
+      </c>
       <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
+      <c r="T27" s="1">
+        <v>4</v>
+      </c>
       <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
+      <c r="V27" s="1">
+        <v>4</v>
+      </c>
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
-      <c r="Y27" s="1"/>
+      <c r="Y27" s="1">
+        <v>6</v>
+      </c>
       <c r="Z27" s="1"/>
       <c r="AA27" s="1"/>
-      <c r="AB27" s="1"/>
+      <c r="AB27" s="1">
+        <v>6</v>
+      </c>
       <c r="AC27" s="1"/>
-      <c r="AD27" s="1"/>
+      <c r="AD27" s="1">
+        <v>5</v>
+      </c>
       <c r="AE27" s="1"/>
       <c r="AF27" s="1"/>
       <c r="AG27" s="1"/>
@@ -2275,19 +2311,31 @@
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
+      <c r="R28" s="1">
+        <v>7</v>
+      </c>
       <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
+      <c r="T28" s="1">
+        <v>5</v>
+      </c>
       <c r="U28" s="1"/>
-      <c r="V28" s="1"/>
+      <c r="V28" s="1">
+        <v>5</v>
+      </c>
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
-      <c r="Y28" s="1"/>
+      <c r="Y28" s="1">
+        <v>6</v>
+      </c>
       <c r="Z28" s="1"/>
       <c r="AA28" s="1"/>
-      <c r="AB28" s="1"/>
+      <c r="AB28" s="1">
+        <v>6</v>
+      </c>
       <c r="AC28" s="1"/>
-      <c r="AD28" s="1"/>
+      <c r="AD28" s="1">
+        <v>7</v>
+      </c>
       <c r="AE28" s="1"/>
       <c r="AF28" s="1"/>
       <c r="AG28" s="1"/>
@@ -2668,7 +2716,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -2680,408 +2728,408 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="7" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
-        <v>2</v>
-      </c>
-      <c r="B4" s="10" t="s">
+      <c r="A4" s="9">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
+      <c r="A5" s="9">
         <v>3</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
-        <v>4</v>
-      </c>
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="9">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="16">
+      <c r="A7" s="9">
         <v>5</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
+      <c r="A8" s="9">
         <v>6</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
+      <c r="A9" s="9">
         <v>7</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
+      <c r="A10" s="9">
         <v>8</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="16">
+      <c r="A11" s="9">
         <v>9</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
+      <c r="A12" s="9">
         <v>10</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="16">
+      <c r="A13" s="9">
         <v>11</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="16">
+      <c r="A14" s="9">
         <v>12</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="16">
+      <c r="A15" s="9">
         <v>13</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="16">
+      <c r="A16" s="9">
         <v>14</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="16">
+      <c r="A17" s="9">
         <v>15</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="16">
+      <c r="A18" s="9">
         <v>16</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="16">
+      <c r="A19" s="9">
         <v>17</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="16">
+      <c r="A20" s="9">
         <v>18</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="16">
+      <c r="A21" s="9">
         <v>19</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="16">
+      <c r="A22" s="9">
         <v>20</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="16">
+      <c r="A23" s="9">
         <v>21</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="16">
+      <c r="A24" s="9">
         <v>22</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="16">
+      <c r="A25" s="9">
         <v>23</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="16">
+      <c r="A26" s="9">
         <v>24</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="16">
+      <c r="A27" s="9">
         <v>25</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="16">
+      <c r="A28" s="9">
         <v>26</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="16">
+      <c r="A29" s="9">
         <v>27</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="17">
+      <c r="A30" s="10">
         <v>28</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="6" t="s">
         <v>74</v>
       </c>
     </row>

--- a/Documentacion/Detalle actividades .xlsx
+++ b/Documentacion/Detalle actividades .xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\Eddy Hipo\Tercer Semestre\Diseño de Interfaces GR1\Repositorio-Deberes\pryecto de la iglesia\proyecto-semestre-asientos-iglesia-grupo-3\Documentacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CRISTHIAN\Desktop\car\Interfaces\Proyecto Iglesia\proyecto-semestre-asientos-iglesia-grupo-3\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,17 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="77">
   <si>
     <t>SPRINT BACKLOG</t>
   </si>
   <si>
-    <t>Tarea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estado </t>
-  </si>
-  <si>
     <t xml:space="preserve">Responsable </t>
   </si>
   <si>
@@ -57,18 +51,12 @@
     <t xml:space="preserve">28 de agosto </t>
   </si>
   <si>
-    <t xml:space="preserve">29 de agosto </t>
-  </si>
-  <si>
     <t xml:space="preserve">30 de agosto </t>
   </si>
   <si>
     <t xml:space="preserve">31 de agosto </t>
   </si>
   <si>
-    <t xml:space="preserve">completada </t>
-  </si>
-  <si>
     <t>Carlos Maldonado</t>
   </si>
   <si>
@@ -265,6 +253,9 @@
   </si>
   <si>
     <t xml:space="preserve">No planificado </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID TAREA </t>
   </si>
 </sst>
 </file>
@@ -309,7 +300,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -475,12 +466,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
@@ -509,16 +518,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
@@ -527,9 +530,28 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -811,29 +833,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI35"/>
+  <dimension ref="A1:AF34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B15" workbookViewId="0">
-      <selection activeCell="AP25" sqref="AP25"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:AB33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" customWidth="1"/>
-    <col min="5" max="12" width="3.7109375" customWidth="1"/>
-    <col min="13" max="24" width="3.85546875" customWidth="1"/>
-    <col min="25" max="25" width="3.28515625" customWidth="1"/>
-    <col min="26" max="44" width="3.42578125" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="32" width="3.7109375" customWidth="1"/>
+    <col min="33" max="41" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="87.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="88.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
@@ -850,87 +872,80 @@
         <v>9</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AF1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="19"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -961,284 +976,270 @@
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
       <c r="AF2" s="1"/>
-      <c r="AG2" s="1"/>
-      <c r="AH2" s="1"/>
-      <c r="AI2" s="1"/>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="1"/>
-      <c r="AG3" s="1"/>
-      <c r="AH3" s="1"/>
-      <c r="AI3" s="1"/>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1">
-        <f>SUM(E7:E37)</f>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A3" s="20"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="1">
+        <f>SUM(C6:C36)</f>
         <v>15</v>
       </c>
-      <c r="F4" s="1">
-        <f t="shared" ref="F4:AI4" si="0">SUM(F7:F37)</f>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:AF3" si="0">SUM(D6:D36)</f>
         <v>19</v>
       </c>
-      <c r="G4" s="1">
+      <c r="E3" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="H4" s="1">
+      <c r="F3" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="I4" s="1">
+      <c r="G3" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="J4" s="1">
+      <c r="H3" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="K3" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="L3" s="1">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="M3" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="N3" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O3" s="1">
+        <f>SUM(O6:O36)</f>
+        <v>34</v>
+      </c>
+      <c r="P3" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="Q3" s="1">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="R3" s="1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="S3" s="1">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="T3" s="1">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="U3" s="1">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="V3" s="1">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="W3" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="X3" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="Y3" s="1">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="Z3" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="AA3" s="1">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="AB3" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AC3" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K4" s="1">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="L4" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="M4" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="N4" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="O4" s="1">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="P4" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="Q4" s="1">
+      <c r="AD3" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R4" s="1">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="S4" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="T4" s="1">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="U4" s="1">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="V4" s="1">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="W4" s="1">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="X4" s="1">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="Y4" s="1">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="Z4" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="AA4" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="AB4" s="1">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="AC4" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="AD4" s="1">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="AE4" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="AF4" s="1">
+      <c r="AE3" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AG4" s="1">
+      <c r="AF3" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AH4" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI4" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
-      <c r="X5" s="16"/>
-      <c r="Y5" s="16"/>
-      <c r="Z5" s="16"/>
-      <c r="AA5" s="16"/>
-      <c r="AB5" s="16"/>
-      <c r="AC5" s="16"/>
-      <c r="AD5" s="16"/>
-      <c r="AE5" s="16"/>
-      <c r="AF5" s="16"/>
-      <c r="AG5" s="16"/>
-      <c r="AH5" s="16"/>
-      <c r="AI5" s="17"/>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A4" s="22"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="15"/>
+      <c r="AB4" s="15"/>
+      <c r="AC4" s="24"/>
+      <c r="AD4" s="24"/>
+      <c r="AE4" s="24"/>
+      <c r="AF4" s="25"/>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="17"/>
+      <c r="AA5" s="17"/>
+      <c r="AB5" s="17"/>
+      <c r="AC5" s="26"/>
+      <c r="AD5" s="26"/>
+      <c r="AE5" s="26"/>
+      <c r="AF5" s="27"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
       <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="19"/>
-      <c r="X6" s="19"/>
-      <c r="Y6" s="19"/>
-      <c r="Z6" s="19"/>
-      <c r="AA6" s="19"/>
-      <c r="AB6" s="19"/>
-      <c r="AC6" s="19"/>
-      <c r="AD6" s="19"/>
-      <c r="AE6" s="19"/>
-      <c r="AF6" s="19"/>
-      <c r="AG6" s="19"/>
-      <c r="AH6" s="19"/>
-      <c r="AI6" s="20"/>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
       <c r="E7" s="1">
-        <v>3</v>
-      </c>
-      <c r="F7" s="1">
         <v>2</v>
       </c>
-      <c r="G7" s="1">
-        <v>2</v>
-      </c>
-      <c r="H7" s="1">
-        <v>2</v>
-      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -1263,30 +1264,23 @@
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
-      <c r="AG7" s="1"/>
-      <c r="AH7" s="1"/>
-      <c r="AI7" s="1"/>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1">
         <v>2</v>
       </c>
-      <c r="F8" s="1">
-        <v>2</v>
-      </c>
-      <c r="G8" s="1">
-        <v>2</v>
-      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -1303,37 +1297,36 @@
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
+      <c r="X8" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>3</v>
+      </c>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
       <c r="AF8" s="1"/>
-      <c r="AG8" s="1"/>
-      <c r="AH8" s="1"/>
-      <c r="AI8" s="1"/>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>17</v>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="1">
-        <v>4</v>
-      </c>
+      <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="1">
-        <v>2</v>
-      </c>
+      <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -1354,35 +1347,26 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1">
-        <v>3</v>
-      </c>
-      <c r="AB9" s="1">
-        <v>3</v>
-      </c>
-      <c r="AC9" s="1">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
       <c r="AF9" s="1"/>
-      <c r="AG9" s="1"/>
-      <c r="AH9" s="1"/>
-      <c r="AI9" s="1"/>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>18</v>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="1">
-        <v>2</v>
-      </c>
+      <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -1407,29 +1391,22 @@
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
-      <c r="AD10" s="1">
-        <v>2</v>
-      </c>
+      <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
       <c r="AF10" s="1"/>
-      <c r="AG10" s="1"/>
-      <c r="AH10" s="1"/>
-      <c r="AI10" s="1"/>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>20</v>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1">
-        <v>4</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1">
+        <v>5</v>
+      </c>
+      <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -1457,25 +1434,20 @@
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
-      <c r="AG11" s="1"/>
-      <c r="AH11" s="1"/>
-      <c r="AI11" s="1"/>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>21</v>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1">
+        <v>5</v>
+      </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="1">
-        <v>5</v>
-      </c>
+      <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -1502,25 +1474,20 @@
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
-      <c r="AG12" s="1"/>
-      <c r="AH12" s="1"/>
-      <c r="AI12" s="1"/>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>22</v>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1">
+        <v>5</v>
+      </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="1">
-        <v>5</v>
-      </c>
+      <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -1547,212 +1514,202 @@
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
-      <c r="AG13" s="1"/>
-      <c r="AH13" s="1"/>
-      <c r="AI13" s="1"/>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>23</v>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>44</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
+      <c r="H14" s="1">
+        <v>4</v>
+      </c>
+      <c r="I14" s="1">
+        <v>4</v>
+      </c>
+      <c r="J14" s="1">
+        <v>4</v>
+      </c>
+      <c r="K14" s="1">
+        <v>4</v>
+      </c>
+      <c r="L14" s="1">
+        <v>4</v>
+      </c>
+      <c r="M14" s="1">
+        <v>4</v>
+      </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
+      <c r="P14" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>4</v>
+      </c>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
+      <c r="T14" s="1">
+        <v>4</v>
+      </c>
+      <c r="U14" s="1">
+        <v>4</v>
+      </c>
+      <c r="V14" s="1">
+        <v>6</v>
+      </c>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
-      <c r="AA14" s="1"/>
-      <c r="AB14" s="1"/>
+      <c r="AA14" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>4</v>
+      </c>
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
       <c r="AF14" s="1"/>
-      <c r="AG14" s="1"/>
-      <c r="AH14" s="1"/>
-      <c r="AI14" s="1"/>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>24</v>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="F15" s="1">
+        <v>2</v>
+      </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1">
         <v>4</v>
       </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+      <c r="I15" s="1">
+        <v>4</v>
+      </c>
+      <c r="J15" s="1">
+        <v>4</v>
+      </c>
       <c r="K15" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L15" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M15" s="1">
-        <v>4</v>
-      </c>
-      <c r="N15" s="1">
-        <v>4</v>
-      </c>
-      <c r="O15" s="1">
-        <v>4</v>
-      </c>
-      <c r="P15" s="1">
-        <v>4</v>
-      </c>
-      <c r="Q15" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1">
+        <v>2</v>
+      </c>
       <c r="R15" s="1"/>
-      <c r="S15" s="1">
-        <v>4</v>
-      </c>
+      <c r="S15" s="1"/>
       <c r="T15" s="1">
         <v>4</v>
       </c>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1">
-        <v>4</v>
-      </c>
-      <c r="X15" s="1">
-        <v>4</v>
-      </c>
-      <c r="Y15" s="1">
-        <v>4</v>
-      </c>
+      <c r="U15" s="1">
+        <v>4</v>
+      </c>
+      <c r="V15" s="1">
+        <v>6</v>
+      </c>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
-      <c r="AA15" s="1"/>
-      <c r="AB15" s="1"/>
+      <c r="AA15" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>2</v>
+      </c>
       <c r="AC15" s="1"/>
-      <c r="AD15" s="1">
-        <v>4</v>
-      </c>
-      <c r="AE15" s="1">
-        <v>4</v>
-      </c>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
-      <c r="AG15" s="1"/>
-      <c r="AH15" s="1"/>
-      <c r="AI15" s="1"/>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>25</v>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="F16" s="1">
+        <v>6</v>
+      </c>
       <c r="G16" s="1"/>
-      <c r="H16" s="1">
-        <v>2</v>
-      </c>
+      <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="1">
-        <v>2</v>
-      </c>
-      <c r="L16" s="1">
-        <v>2</v>
-      </c>
-      <c r="M16" s="1">
-        <v>2</v>
-      </c>
-      <c r="N16" s="1">
-        <v>2</v>
-      </c>
-      <c r="O16" s="1">
-        <v>2</v>
-      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
       <c r="P16" s="1">
         <v>2</v>
       </c>
-      <c r="Q16" s="1"/>
+      <c r="Q16" s="1">
+        <v>2</v>
+      </c>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1">
+        <v>4</v>
+      </c>
+      <c r="U16" s="1">
+        <v>4</v>
+      </c>
+      <c r="V16" s="1">
         <v>2</v>
       </c>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1">
-        <v>2</v>
-      </c>
-      <c r="X16" s="1">
-        <v>2</v>
-      </c>
-      <c r="Y16" s="1">
-        <v>2</v>
-      </c>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
-      <c r="AD16" s="1">
-        <v>2</v>
-      </c>
-      <c r="AE16" s="1">
-        <v>2</v>
-      </c>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
       <c r="AF16" s="1"/>
-      <c r="AG16" s="1"/>
-      <c r="AH16" s="1"/>
-      <c r="AI16" s="1"/>
-    </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>68</v>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="F17" s="1">
+        <v>4</v>
+      </c>
       <c r="G17" s="1"/>
-      <c r="H17" s="1">
-        <v>6</v>
-      </c>
+      <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -1760,26 +1717,24 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
+      <c r="P17" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>2</v>
+      </c>
       <c r="R17" s="1"/>
-      <c r="S17" s="1">
+      <c r="S17" s="1"/>
+      <c r="T17" s="1">
+        <v>4</v>
+      </c>
+      <c r="U17" s="1">
         <v>2</v>
       </c>
-      <c r="T17" s="1">
-        <v>2</v>
-      </c>
-      <c r="U17" s="1"/>
       <c r="V17" s="1"/>
-      <c r="W17" s="1">
-        <v>2</v>
-      </c>
-      <c r="X17" s="1">
-        <v>2</v>
-      </c>
-      <c r="Y17" s="1">
-        <v>2</v>
-      </c>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
@@ -1787,51 +1742,46 @@
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
       <c r="AF17" s="1"/>
-      <c r="AG17" s="1"/>
-      <c r="AH17" s="1"/>
-      <c r="AI17" s="1"/>
-    </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>69</v>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="F18" s="1">
+        <v>5</v>
+      </c>
       <c r="G18" s="1"/>
-      <c r="H18" s="1">
-        <v>4</v>
-      </c>
+      <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
+      <c r="N18" s="1">
+        <v>4</v>
+      </c>
+      <c r="O18" s="1">
+        <v>4</v>
+      </c>
+      <c r="P18" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>4</v>
+      </c>
       <c r="R18" s="1"/>
-      <c r="S18" s="1">
-        <v>2</v>
-      </c>
-      <c r="T18" s="1">
-        <v>2</v>
-      </c>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
-      <c r="W18" s="1">
-        <v>2</v>
-      </c>
-      <c r="X18" s="1">
-        <v>2</v>
-      </c>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
@@ -1840,43 +1790,50 @@
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
       <c r="AF18" s="1"/>
-      <c r="AG18" s="1"/>
-      <c r="AH18" s="1"/>
-      <c r="AI18" s="1"/>
-    </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>26</v>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>14</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>42</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="F19" s="1">
+        <v>5</v>
+      </c>
       <c r="G19" s="1"/>
-      <c r="H19" s="1">
-        <v>5</v>
-      </c>
+      <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
+      <c r="O19" s="1">
+        <v>4</v>
+      </c>
+      <c r="P19" s="1">
+        <v>4</v>
+      </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
+      <c r="S19" s="1">
+        <v>6</v>
+      </c>
+      <c r="T19" s="1">
+        <v>6</v>
+      </c>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
+      <c r="W19" s="1">
+        <v>4</v>
+      </c>
+      <c r="X19" s="1">
+        <v>4</v>
+      </c>
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
@@ -1885,39 +1842,46 @@
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
       <c r="AF19" s="1"/>
-      <c r="AG19" s="1"/>
-      <c r="AH19" s="1"/>
-      <c r="AI19" s="1"/>
-    </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>27</v>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>42</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="F20" s="1">
+        <v>4</v>
+      </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="1">
-        <v>5</v>
-      </c>
+      <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
+      <c r="O20" s="1">
+        <v>6</v>
+      </c>
+      <c r="P20" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>4</v>
+      </c>
+      <c r="R20" s="1">
+        <v>4</v>
+      </c>
+      <c r="S20" s="1">
+        <v>6</v>
+      </c>
+      <c r="T20" s="1">
+        <v>6</v>
+      </c>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
@@ -1930,27 +1894,22 @@
       <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
       <c r="AF20" s="1"/>
-      <c r="AG20" s="1"/>
-      <c r="AH20" s="1"/>
-      <c r="AI20" s="1"/>
-    </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>28</v>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>16</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>42</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="F21" s="1">
+        <v>7</v>
+      </c>
       <c r="G21" s="1"/>
-      <c r="H21" s="1">
-        <v>4</v>
-      </c>
+      <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -1958,12 +1917,18 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
+      <c r="P21" s="1">
+        <v>4</v>
+      </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
+      <c r="S21" s="1">
+        <v>4</v>
+      </c>
       <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
+      <c r="U21" s="1">
+        <v>4</v>
+      </c>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
@@ -1975,27 +1940,22 @@
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
       <c r="AF21" s="1"/>
-      <c r="AG21" s="1"/>
-      <c r="AH21" s="1"/>
-      <c r="AI21" s="1"/>
-    </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>29</v>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>17</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>42</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1">
-        <v>7</v>
-      </c>
+      <c r="G22" s="1">
+        <v>6</v>
+      </c>
+      <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -2006,12 +1966,22 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
+      <c r="S22" s="1">
+        <v>4</v>
+      </c>
       <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
-      <c r="X22" s="1"/>
+      <c r="U22" s="1">
+        <v>4</v>
+      </c>
+      <c r="V22" s="1">
+        <v>4</v>
+      </c>
+      <c r="W22" s="1">
+        <v>6</v>
+      </c>
+      <c r="X22" s="1">
+        <v>6</v>
+      </c>
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
@@ -2020,28 +1990,23 @@
       <c r="AD22" s="1"/>
       <c r="AE22" s="1"/>
       <c r="AF22" s="1"/>
-      <c r="AG22" s="1"/>
-      <c r="AH22" s="1"/>
-      <c r="AI22" s="1"/>
-    </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>30</v>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>18</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>42</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="G23" s="1">
+        <v>3</v>
+      </c>
       <c r="H23" s="1"/>
-      <c r="I23" s="1">
-        <v>6</v>
-      </c>
+      <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
@@ -2055,215 +2020,217 @@
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
-      <c r="W23" s="1"/>
-      <c r="X23" s="1"/>
+      <c r="W23" s="1">
+        <v>4</v>
+      </c>
+      <c r="X23" s="1">
+        <v>4</v>
+      </c>
       <c r="Y23" s="1"/>
-      <c r="Z23" s="1"/>
-      <c r="AA23" s="1"/>
+      <c r="Z23" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>5</v>
+      </c>
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
       <c r="AE23" s="1"/>
       <c r="AF23" s="1"/>
-      <c r="AG23" s="1"/>
-      <c r="AH23" s="1"/>
-      <c r="AI23" s="1"/>
-    </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>31</v>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>19</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>42</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="G24" s="1">
+        <v>5</v>
+      </c>
       <c r="H24" s="1"/>
-      <c r="I24" s="1">
-        <v>3</v>
-      </c>
+      <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
+      <c r="O24" s="1">
+        <v>5</v>
+      </c>
       <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
+      <c r="Q24" s="1">
+        <v>4</v>
+      </c>
       <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
+      <c r="S24" s="1">
+        <v>5</v>
+      </c>
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
+      <c r="V24" s="1">
+        <v>6</v>
+      </c>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
-      <c r="Y24" s="1"/>
+      <c r="Y24" s="1">
+        <v>2</v>
+      </c>
       <c r="Z24" s="1"/>
-      <c r="AA24" s="1"/>
+      <c r="AA24" s="1">
+        <v>2</v>
+      </c>
       <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
       <c r="AD24" s="1"/>
       <c r="AE24" s="1"/>
       <c r="AF24" s="1"/>
-      <c r="AG24" s="1"/>
-      <c r="AH24" s="1"/>
-      <c r="AI24" s="1"/>
-    </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>32</v>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>20</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="G25" s="1">
+        <v>6</v>
+      </c>
       <c r="H25" s="1"/>
-      <c r="I25" s="1">
-        <v>5</v>
-      </c>
+      <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
+      <c r="O25" s="1">
+        <v>3</v>
+      </c>
       <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1">
-        <v>5</v>
-      </c>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1">
-        <v>4</v>
-      </c>
+      <c r="Q25" s="1">
+        <v>3</v>
+      </c>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1">
+        <v>1</v>
+      </c>
+      <c r="T25" s="1"/>
       <c r="U25" s="1"/>
       <c r="V25" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
       <c r="Y25" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Z25" s="1"/>
-      <c r="AA25" s="1"/>
-      <c r="AB25" s="1">
-        <v>2</v>
-      </c>
+      <c r="AA25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB25" s="1"/>
       <c r="AC25" s="1"/>
-      <c r="AD25" s="1">
-        <v>2</v>
-      </c>
+      <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
       <c r="AF25" s="1"/>
-      <c r="AG25" s="1"/>
-      <c r="AH25" s="1"/>
-      <c r="AI25" s="1"/>
-    </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>33</v>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>21</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1">
-        <v>6</v>
-      </c>
+      <c r="H26" s="1">
+        <v>5</v>
+      </c>
+      <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
+      <c r="O26" s="1">
+        <v>5</v>
+      </c>
       <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1">
-        <v>3</v>
-      </c>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1">
-        <v>3</v>
-      </c>
+      <c r="Q26" s="1">
+        <v>4</v>
+      </c>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1">
+        <v>4</v>
+      </c>
+      <c r="T26" s="1"/>
       <c r="U26" s="1"/>
       <c r="V26" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
       <c r="Y26" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Z26" s="1"/>
-      <c r="AA26" s="1"/>
-      <c r="AB26" s="1">
-        <v>1</v>
-      </c>
+      <c r="AA26" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB26" s="1"/>
       <c r="AC26" s="1"/>
-      <c r="AD26" s="1">
-        <v>1</v>
-      </c>
+      <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
       <c r="AF26" s="1"/>
-      <c r="AG26" s="1"/>
-      <c r="AH26" s="1"/>
-      <c r="AI26" s="1"/>
-    </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>34</v>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>22</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
+      <c r="H27" s="1">
+        <v>6</v>
+      </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="1">
-        <v>5</v>
-      </c>
+      <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
+      <c r="O27" s="1">
+        <v>7</v>
+      </c>
       <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1">
+      <c r="Q27" s="1">
         <v>5</v>
       </c>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1">
-        <v>4</v>
-      </c>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1">
+        <v>5</v>
+      </c>
+      <c r="T27" s="1"/>
       <c r="U27" s="1"/>
       <c r="V27" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
@@ -2271,30 +2238,23 @@
         <v>6</v>
       </c>
       <c r="Z27" s="1"/>
-      <c r="AA27" s="1"/>
-      <c r="AB27" s="1">
-        <v>6</v>
-      </c>
+      <c r="AA27" s="1">
+        <v>7</v>
+      </c>
+      <c r="AB27" s="1"/>
       <c r="AC27" s="1"/>
-      <c r="AD27" s="1">
-        <v>5</v>
-      </c>
+      <c r="AD27" s="1"/>
       <c r="AE27" s="1"/>
       <c r="AF27" s="1"/>
-      <c r="AG27" s="1"/>
-      <c r="AH27" s="1"/>
-      <c r="AI27" s="1"/>
-    </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>35</v>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>23</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -2302,56 +2262,49 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="1">
-        <v>6</v>
-      </c>
-      <c r="L28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1">
+        <v>6</v>
+      </c>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
+      <c r="Q28" s="1">
+        <v>6</v>
+      </c>
       <c r="R28" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S28" s="1"/>
-      <c r="T28" s="1">
-        <v>5</v>
-      </c>
-      <c r="U28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1">
+        <v>4</v>
+      </c>
       <c r="V28" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
       <c r="Y28" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Z28" s="1"/>
       <c r="AA28" s="1"/>
-      <c r="AB28" s="1">
-        <v>6</v>
-      </c>
+      <c r="AB28" s="1"/>
       <c r="AC28" s="1"/>
-      <c r="AD28" s="1">
-        <v>7</v>
-      </c>
+      <c r="AD28" s="1"/>
       <c r="AE28" s="1"/>
       <c r="AF28" s="1"/>
-      <c r="AG28" s="1"/>
-      <c r="AH28" s="1"/>
-      <c r="AI28" s="1"/>
-    </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>36</v>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>24</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -2360,53 +2313,48 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
+      <c r="L29" s="1">
+        <v>6</v>
+      </c>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
-      <c r="O29" s="1">
-        <v>6</v>
-      </c>
+      <c r="O29" s="1"/>
       <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
+      <c r="Q29" s="1">
+        <v>6</v>
+      </c>
+      <c r="R29" s="1">
+        <v>6</v>
+      </c>
       <c r="S29" s="1"/>
-      <c r="T29" s="1">
-        <v>6</v>
-      </c>
+      <c r="T29" s="1"/>
       <c r="U29" s="1">
-        <v>6</v>
-      </c>
-      <c r="V29" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="V29" s="1">
+        <v>4</v>
+      </c>
       <c r="W29" s="1"/>
-      <c r="X29" s="1">
-        <v>4</v>
-      </c>
+      <c r="X29" s="1"/>
       <c r="Y29" s="1">
         <v>4</v>
       </c>
       <c r="Z29" s="1"/>
       <c r="AA29" s="1"/>
-      <c r="AB29" s="1">
-        <v>4</v>
-      </c>
+      <c r="AB29" s="1"/>
       <c r="AC29" s="1"/>
       <c r="AD29" s="1"/>
       <c r="AE29" s="1"/>
       <c r="AF29" s="1"/>
-      <c r="AG29" s="1"/>
-      <c r="AH29" s="1"/>
-      <c r="AI29" s="1"/>
-    </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>25</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -2415,53 +2363,48 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
+      <c r="L30" s="1">
+        <v>5</v>
+      </c>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
-      <c r="O30" s="1">
-        <v>6</v>
-      </c>
+      <c r="O30" s="1"/>
       <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
+      <c r="Q30" s="1">
+        <v>5</v>
+      </c>
+      <c r="R30" s="1">
+        <v>6</v>
+      </c>
       <c r="S30" s="1"/>
-      <c r="T30" s="1">
-        <v>6</v>
-      </c>
+      <c r="T30" s="1"/>
       <c r="U30" s="1">
-        <v>6</v>
-      </c>
-      <c r="V30" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="V30" s="1">
+        <v>4</v>
+      </c>
       <c r="W30" s="1"/>
-      <c r="X30" s="1">
-        <v>4</v>
-      </c>
+      <c r="X30" s="1"/>
       <c r="Y30" s="1">
         <v>4</v>
       </c>
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
-      <c r="AB30" s="1">
-        <v>4</v>
-      </c>
+      <c r="AB30" s="1"/>
       <c r="AC30" s="1"/>
       <c r="AD30" s="1"/>
       <c r="AE30" s="1"/>
       <c r="AF30" s="1"/>
-      <c r="AG30" s="1"/>
-      <c r="AH30" s="1"/>
-      <c r="AI30" s="1"/>
-    </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>37</v>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>26</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>43</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -2470,53 +2413,48 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
+      <c r="L31" s="1">
+        <v>5</v>
+      </c>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
-      <c r="O31" s="1">
-        <v>5</v>
-      </c>
+      <c r="O31" s="1"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
       <c r="T31" s="1">
+        <v>4</v>
+      </c>
+      <c r="U31" s="1">
         <v>5</v>
       </c>
-      <c r="U31" s="1">
-        <v>6</v>
-      </c>
-      <c r="V31" s="1"/>
+      <c r="V31" s="1">
+        <v>5</v>
+      </c>
       <c r="W31" s="1"/>
-      <c r="X31" s="1">
-        <v>4</v>
-      </c>
+      <c r="X31" s="1"/>
       <c r="Y31" s="1">
         <v>4</v>
       </c>
       <c r="Z31" s="1"/>
-      <c r="AA31" s="1"/>
-      <c r="AB31" s="1">
-        <v>4</v>
-      </c>
+      <c r="AA31" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB31" s="1"/>
       <c r="AC31" s="1"/>
       <c r="AD31" s="1"/>
       <c r="AE31" s="1"/>
       <c r="AF31" s="1"/>
-      <c r="AG31" s="1"/>
-      <c r="AH31" s="1"/>
-      <c r="AI31" s="1"/>
-    </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>40</v>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>27</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>43</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -2525,53 +2463,48 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
+      <c r="L32" s="1">
+        <v>5</v>
+      </c>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
-      <c r="O32" s="1">
-        <v>5</v>
-      </c>
+      <c r="O32" s="1"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
+      <c r="U32" s="1">
+        <v>6</v>
+      </c>
+      <c r="V32" s="1">
+        <v>6</v>
+      </c>
       <c r="W32" s="1">
         <v>4</v>
       </c>
-      <c r="X32" s="1">
-        <v>5</v>
-      </c>
+      <c r="X32" s="1"/>
       <c r="Y32" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z32" s="1"/>
-      <c r="AA32" s="1"/>
-      <c r="AB32" s="1">
-        <v>4</v>
-      </c>
+      <c r="AA32" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB32" s="1"/>
       <c r="AC32" s="1"/>
-      <c r="AD32" s="1">
-        <v>2</v>
-      </c>
+      <c r="AD32" s="1"/>
       <c r="AE32" s="1"/>
       <c r="AF32" s="1"/>
-      <c r="AG32" s="1"/>
-      <c r="AH32" s="1"/>
-      <c r="AI32" s="1"/>
-    </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>38</v>
+    </row>
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>28</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>43</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -2580,12 +2513,12 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
+      <c r="L33" s="1">
+        <v>5</v>
+      </c>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
-      <c r="O33" s="1">
-        <v>5</v>
-      </c>
+      <c r="O33" s="1"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
@@ -2595,38 +2528,23 @@
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
       <c r="X33" s="1">
-        <v>6</v>
-      </c>
-      <c r="Y33" s="1">
-        <v>6</v>
-      </c>
-      <c r="Z33" s="1">
-        <v>4</v>
-      </c>
-      <c r="AA33" s="1"/>
-      <c r="AB33" s="1">
-        <v>4</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB33" s="1"/>
       <c r="AC33" s="1"/>
-      <c r="AD33" s="1">
-        <v>2</v>
-      </c>
+      <c r="AD33" s="1"/>
       <c r="AE33" s="1"/>
       <c r="AF33" s="1"/>
-      <c r="AG33" s="1"/>
-      <c r="AH33" s="1"/>
-      <c r="AI33" s="1"/>
-    </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>43</v>
-      </c>
+    </row>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -2638,9 +2556,7 @@
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
-      <c r="O34" s="1">
-        <v>5</v>
-      </c>
+      <c r="O34" s="1"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
@@ -2652,63 +2568,20 @@
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
-      <c r="AA34" s="1">
-        <v>4</v>
-      </c>
+      <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
       <c r="AC34" s="1"/>
-      <c r="AD34" s="1">
-        <v>2</v>
-      </c>
+      <c r="AD34" s="1"/>
       <c r="AE34" s="1"/>
       <c r="AF34" s="1"/>
-      <c r="AG34" s="1"/>
-      <c r="AH34" s="1"/>
-      <c r="AI34" s="1"/>
-    </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
-      <c r="T35" s="1"/>
-      <c r="U35" s="1"/>
-      <c r="V35" s="1"/>
-      <c r="W35" s="1"/>
-      <c r="X35" s="1"/>
-      <c r="Y35" s="1"/>
-      <c r="Z35" s="1"/>
-      <c r="AA35" s="1"/>
-      <c r="AB35" s="1"/>
-      <c r="AC35" s="1"/>
-      <c r="AD35" s="1"/>
-      <c r="AE35" s="1"/>
-      <c r="AF35" s="1"/>
-      <c r="AG35" s="1"/>
-      <c r="AH35" s="1"/>
-      <c r="AI35" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="E5:AI6"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="C4:AB5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2729,16 +2602,16 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2746,13 +2619,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2760,13 +2633,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2774,13 +2647,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2788,13 +2661,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2802,13 +2675,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2816,13 +2689,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2830,13 +2703,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2844,13 +2717,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2858,13 +2731,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2872,13 +2745,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2886,13 +2759,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2900,13 +2773,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2914,13 +2787,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2928,13 +2801,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2942,13 +2815,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2956,13 +2829,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2970,13 +2843,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2984,13 +2857,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2998,13 +2871,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -3012,13 +2885,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -3026,13 +2899,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -3040,13 +2913,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -3054,13 +2927,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -3068,13 +2941,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -3082,13 +2955,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -3096,13 +2969,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -3110,13 +2983,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -3124,13 +2997,13 @@
         <v>28</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
